--- a/data/trans_orig/CALVIDA_EUROQOL-Edad-trans_orig.xlsx
+++ b/data/trans_orig/CALVIDA_EUROQOL-Edad-trans_orig.xlsx
@@ -531,7 +531,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Calidad de vida asociada a la salud (EuroQol)</t>
+          <t>Calidad de vida asociada a la salud (EuroQol) (tasa de respuesta: 99,74%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/CALVIDA_EUROQOL-Edad-trans_orig.xlsx
+++ b/data/trans_orig/CALVIDA_EUROQOL-Edad-trans_orig.xlsx
@@ -632,7 +632,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,96</t>
+          <t>0,95</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -685,7 +685,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,92; 0,97</t>
+          <t>0,87; 0,97</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -700,22 +700,22 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>0,92; 0,96</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>0,93; 0,97</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>0,91; 0,95</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>0,93; 0,97</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>0,91; 0,94</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,93; 0,96</t>
+          <t>0,91; 0,96</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,93; 0,95</t>
+          <t>0,92; 0,95</t>
         </is>
       </c>
     </row>
@@ -825,7 +825,7 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,93; 0,96</t>
+          <t>0,94; 0,96</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -867,7 +867,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,92</t>
+          <t>0,93</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -920,19 +920,19 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>0,91; 0,94</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0,93; 0,95</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>0,9; 0,93</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>0,93; 0,95</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>0,9; 0,93</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
           <t>0,92; 0,94</t>
@@ -945,7 +945,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,9; 0,93</t>
+          <t>0,89; 0,93</t>
         </is>
       </c>
     </row>
@@ -977,7 +977,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,9</t>
+          <t>0,91</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -992,7 +992,7 @@
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,91</t>
+          <t>0,92</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1015,7 +1015,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,91; 0,93</t>
+          <t>0,91; 0,94</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -1030,7 +1030,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,88; 0,92</t>
+          <t>0,89; 0,92</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1045,7 +1045,7 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,9; 0,92</t>
+          <t>0,9; 0,93</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1072,29 +1072,29 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>0,91</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0,92</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>0,9</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>0,92</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0,91</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
         <is>
           <t>0,9</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>0,9</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>0,9</t>
-        </is>
-      </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
           <t>0,85</t>
@@ -1102,7 +1102,7 @@
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,9</t>
+          <t>0,91</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1125,22 +1125,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>0,89; 0,92</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0,9; 0,94</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
           <t>0,88; 0,92</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>0,9; 0,94</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>0,87; 0,92</t>
-        </is>
-      </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,89; 0,91</t>
+          <t>0,89; 0,92</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,89; 0,91</t>
+          <t>0,9; 0,92</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1197,7 +1197,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,88</t>
+          <t>0,87</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1212,7 +1212,7 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,89</t>
+          <t>0,9</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,9; 0,93</t>
+          <t>0,91; 0,93</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1260,7 +1260,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,75; 0,85</t>
+          <t>0,76; 0,86</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1307,7 +1307,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,72</t>
+          <t>0,71</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1322,7 +1322,7 @@
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,77</t>
+          <t>0,76</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -1345,7 +1345,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,83; 0,87</t>
+          <t>0,83; 0,88</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1360,7 +1360,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,69; 0,75</t>
+          <t>0,67; 0,74</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1375,7 +1375,7 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,75; 0,8</t>
+          <t>0,73; 0,79</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1385,7 +1385,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,65; 0,73</t>
+          <t>0,66; 0,73</t>
         </is>
       </c>
     </row>
@@ -1417,7 +1417,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,87</t>
+          <t>0,88</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>0,89</t>
+          <t>0,9</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -1455,7 +1455,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0,91; 0,92</t>
+          <t>0,91; 0,93</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1470,7 +1470,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,86; 0,88</t>
+          <t>0,87; 0,89</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1485,7 +1485,7 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>0,88; 0,9</t>
+          <t>0,9; 0,91</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">

--- a/data/trans_orig/CALVIDA_EUROQOL-Edad-trans_orig.xlsx
+++ b/data/trans_orig/CALVIDA_EUROQOL-Edad-trans_orig.xlsx
@@ -562,47 +562,47 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
         </is>
       </c>
     </row>
@@ -647,32 +647,32 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>0,93</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0,96</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>0,94</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>0,96</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>0,93</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
+          <t>0,94</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>0,97</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
           <t>0,95</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>0,97</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>0,94</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>0,92; 0,96</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0,96; 0,98</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>0,87; 0,97</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>0,96; 0,98</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>0,91; 0,95</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>0,93; 0,97</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
         <is>
           <t>0,92; 0,96</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>0,92; 0,96</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>0,93; 0,97</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>0,91; 0,95</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
+          <t>0,92; 0,95</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>0,95; 0,98</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
           <t>0,91; 0,96</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>0,95; 0,98</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>0,92; 0,95</t>
         </is>
       </c>
     </row>
@@ -742,47 +742,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>0,95</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0,97</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>0,96</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0,92</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
         <is>
           <t>0,97</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0,94</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0,93</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0,97</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
         <is>
           <t>0,95</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>0,94</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>0,97</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>0,92</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>0,95</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>0,97</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>0,93</t>
         </is>
       </c>
     </row>
@@ -795,47 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>0,92; 0,96</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0,96; 0,98</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>0,94; 0,97</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>0,9; 0,93</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
         <is>
           <t>0,96; 0,98</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
+      <c r="H7" s="2" t="inlineStr">
         <is>
           <t>0,92; 0,96</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>0,92; 0,96</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>0,96; 0,98</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>0,9; 0,93</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
+          <t>0,92; 0,94</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>0,96; 0,97</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
           <t>0,94; 0,96</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>0,96; 0,97</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>0,92; 0,94</t>
         </is>
       </c>
     </row>
@@ -852,47 +852,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>0,93</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>0,96</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>0,94</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>0,96</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>0,91</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>0,94</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
         <is>
           <t>0,93</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>0,92</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>0,95</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
         <is>
           <t>0,93</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>0,94</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>0,91</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>0,93</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>0,95</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>0,92</t>
         </is>
       </c>
     </row>
@@ -905,47 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>0,88; 0,94</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0,94; 0,97</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>0,93; 0,95</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>0,94; 0,97</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>0,88; 0,94</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>0,9; 0,93</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0,93; 0,95</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>0,91; 0,94</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>0,93; 0,95</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>0,9; 0,93</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
+          <t>0,89; 0,93</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>0,94; 0,96</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
           <t>0,92; 0,94</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>0,94; 0,96</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>0,89; 0,93</t>
         </is>
       </c>
     </row>
@@ -962,47 +962,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>0,91</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0,96</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>0,92</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>0,96</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>0,88</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0,93</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
         <is>
           <t>0,91</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>0,91</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>0,93</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>0,88</t>
-        </is>
-      </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
+          <t>0,89</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>0,95</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
           <t>0,92</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>0,95</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>0,89</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>0,89; 0,92</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>0,94; 0,96</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>0,91; 0,94</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>0,94; 0,96</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>0,86; 0,9</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>0,92; 0,95</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
         <is>
           <t>0,89; 0,92</t>
         </is>
       </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>0,89; 0,92</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>0,92; 0,95</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>0,86; 0,9</t>
-        </is>
-      </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
+          <t>0,88; 0,91</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>0,94; 0,95</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
           <t>0,9; 0,93</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>0,94; 0,95</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>0,88; 0,91</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1072,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>0,9</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0,92</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>0,91</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>0,92</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0,85</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
         <is>
           <t>0,9</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
+      <c r="H12" s="2" t="inlineStr">
         <is>
           <t>0,91</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>0,9</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>0,85</t>
-        </is>
-      </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
+          <t>0,87</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
           <t>0,91</t>
         </is>
       </c>
-      <c r="J12" s="2" t="inlineStr">
+      <c r="K12" s="2" t="inlineStr">
         <is>
           <t>0,91</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>0,87</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1125,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>0,88; 0,92</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0,9; 0,94</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
           <t>0,89; 0,92</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>0,9; 0,94</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0,81; 0,87</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
         <is>
           <t>0,88; 0,92</t>
         </is>
       </c>
-      <c r="F13" s="2" t="inlineStr">
+      <c r="H13" s="2" t="inlineStr">
         <is>
           <t>0,89; 0,92</t>
         </is>
       </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>0,88; 0,92</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>0,81; 0,87</t>
-        </is>
-      </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
+          <t>0,85; 0,89</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
           <t>0,9; 0,92</t>
         </is>
       </c>
-      <c r="J13" s="2" t="inlineStr">
+      <c r="K13" s="2" t="inlineStr">
         <is>
           <t>0,9; 0,92</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>0,85; 0,89</t>
         </is>
       </c>
     </row>
@@ -1182,47 +1182,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>0,88</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>0,93</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>0,92</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>0,93</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>0,88</t>
-        </is>
-      </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>0,82</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>0,89</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>0,87</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>0,89</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>0,82</t>
-        </is>
-      </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
+          <t>0,85</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>0,91</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
           <t>0,9</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>0,91</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>0,85</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1235,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>0,84; 0,91</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>0,91; 0,94</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
           <t>0,91; 0,93</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>0,91; 0,94</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>0,84; 0,91</t>
-        </is>
-      </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>0,76; 0,86</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>0,88; 0,91</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
           <t>0,85; 0,89</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>0,81; 0,87</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>0,9; 0,92</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
         <is>
           <t>0,88; 0,91</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>0,76; 0,86</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>0,88; 0,91</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>0,9; 0,92</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>0,81; 0,87</t>
         </is>
       </c>
     </row>
@@ -1292,47 +1292,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>0,79</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>0,83</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
           <t>0,85</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>0,83</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>0,63</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>0,76</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>0,71</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>0,69</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
         <is>
           <t>0,79</t>
         </is>
       </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>0,71</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
+      <c r="K16" s="2" t="inlineStr">
         <is>
           <t>0,76</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>0,63</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>0,76</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>0,79</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>0,69</t>
         </is>
       </c>
     </row>
@@ -1345,47 +1345,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>0,74; 0,83</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>0,81; 0,85</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
           <t>0,83; 0,88</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>0,81; 0,85</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>0,74; 0,83</t>
-        </is>
-      </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
+          <t>0,58; 0,68</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>0,73; 0,78</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
           <t>0,67; 0,74</t>
         </is>
       </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>0,73; 0,78</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>0,58; 0,68</t>
-        </is>
-      </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
+          <t>0,66; 0,73</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>0,77; 0,8</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
           <t>0,73; 0,79</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>0,77; 0,8</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
-        <is>
-          <t>0,66; 0,73</t>
         </is>
       </c>
     </row>
@@ -1402,47 +1402,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>0,91</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>0,94</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
           <t>0,92</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>0,94</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>0,85</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
         <is>
           <t>0,91</t>
         </is>
       </c>
-      <c r="F18" s="2" t="inlineStr">
+      <c r="H18" s="2" t="inlineStr">
         <is>
           <t>0,88</t>
         </is>
       </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>0,91</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>0,85</t>
-        </is>
-      </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
+          <t>0,88</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>0,92</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
           <t>0,9</t>
-        </is>
-      </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
-          <t>0,92</t>
-        </is>
-      </c>
-      <c r="K18" s="2" t="inlineStr">
-        <is>
-          <t>0,88</t>
         </is>
       </c>
     </row>
@@ -1455,47 +1455,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
+          <t>0,9; 0,92</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>0,93; 0,94</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
           <t>0,91; 0,93</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>0,93; 0,94</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>0,83; 0,86</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>0,9; 0,92</t>
         </is>
       </c>
-      <c r="F19" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>0,87; 0,89</t>
         </is>
       </c>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>0,9; 0,92</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>0,83; 0,86</t>
-        </is>
-      </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
+          <t>0,87; 0,88</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>0,92; 0,93</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
           <t>0,9; 0,91</t>
-        </is>
-      </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>0,92; 0,93</t>
-        </is>
-      </c>
-      <c r="K19" s="2" t="inlineStr">
-        <is>
-          <t>0,87; 0,88</t>
         </is>
       </c>
     </row>
